--- a/LTS_cor_Problems_Tracker_rp.xlsx
+++ b/LTS_cor_Problems_Tracker_rp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Patient</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Fat_Mask_Size</t>
   </si>
   <si>
-    <t>Patient-030</t>
-  </si>
-  <si>
-    <t>Patient-031</t>
-  </si>
-  <si>
-    <t>Patient-061</t>
+    <t>Patient-093</t>
+  </si>
+  <si>
+    <t>Patient-094</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,22 +432,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>1073</v>
+        <v>1396</v>
       </c>
       <c r="D2">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="E2">
-        <v>755</v>
+        <v>398</v>
       </c>
       <c r="F2">
-        <v>1228</v>
+        <v>692</v>
       </c>
       <c r="G2">
-        <v>3746</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,45 +455,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>1926</v>
+        <v>269</v>
       </c>
       <c r="D3">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="E3">
-        <v>700</v>
+        <v>477</v>
       </c>
       <c r="F3">
-        <v>1093</v>
+        <v>828</v>
       </c>
       <c r="G3">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>323</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>131</v>
-      </c>
-      <c r="F4">
-        <v>345</v>
-      </c>
-      <c r="G4">
-        <v>1266</v>
+        <v>6103</v>
       </c>
     </row>
   </sheetData>
